--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Desktop\CCCCompanion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C1EE7-426F-4F4D-8787-599F512C08B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="2856" yWindow="1764" windowWidth="17280" windowHeight="9960" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -18,9 +19,10 @@
     <sheet name="CPME Ethanol Water" sheetId="3" r:id="rId4"/>
     <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId5"/>
     <sheet name="1-Butanol AceticAcid Water" sheetId="9" r:id="rId6"/>
-    <sheet name="1-Butanol EthylAcetate Water" sheetId="10" r:id="rId7"/>
+    <sheet name="2-MeTHF Ethanol Water" sheetId="11" r:id="rId7"/>
+    <sheet name="1-Butanol EthylAcetate Water" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="78">
   <si>
     <t>CPME</t>
   </si>
@@ -264,12 +266,24 @@
   <si>
     <t>0 5 5</t>
   </si>
+  <si>
+    <t>2-MeTHF</t>
+  </si>
+  <si>
+    <t>4 0 6</t>
+  </si>
+  <si>
+    <t>4 0,5 5,5</t>
+  </si>
+  <si>
+    <t>3 1,35 5,65</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +297,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -299,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -357,17 +376,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,10 +409,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Good" xfId="1"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6E4674A7-957C-4260-95CE-0B2739139CF4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,20 +693,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,7 +774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -818,12 +854,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>0.94202430999999998</v>
       </c>
@@ -894,7 +930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100.20099999999999</v>
       </c>
@@ -974,12 +1010,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1">
         <v>0.93905417999999996</v>
       </c>
@@ -1050,7 +1086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.68400000000000005</v>
       </c>
@@ -1130,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.93993638000000002</v>
       </c>
@@ -1201,7 +1237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>0.94156686999999994</v>
       </c>
@@ -1272,7 +1308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.94409776000000001</v>
       </c>
@@ -1343,7 +1379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>0.94783315999999995</v>
       </c>
@@ -1414,7 +1450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0.95337875999999999</v>
       </c>
@@ -1485,7 +1521,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>0.96261976000000005</v>
       </c>
@@ -1556,7 +1592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1576,7 +1612,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1596,7 +1632,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1616,7 +1652,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1636,7 +1672,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1656,7 +1692,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1676,7 +1712,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1696,7 +1732,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1716,7 +1752,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1734,20 +1770,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1895,12 +1931,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>0.90261424999999995</v>
       </c>
@@ -1971,7 +2007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>88.15</v>
       </c>
@@ -2051,12 +2087,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1">
         <v>0.75097910000000001</v>
       </c>
@@ -2127,7 +2163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.74</v>
       </c>
@@ -2207,7 +2243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.35668304000000001</v>
       </c>
@@ -2278,7 +2314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>0.26492953000000002</v>
       </c>
@@ -2349,7 +2385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.19046214</v>
       </c>
@@ -2420,7 +2456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2455,7 +2491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2475,7 +2511,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2495,7 +2531,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2515,7 +2551,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2535,7 +2571,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2555,7 +2591,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2575,7 +2611,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2595,7 +2631,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2615,7 +2651,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2635,7 +2671,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2655,7 +2691,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2673,20 +2709,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2754,7 +2790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2834,12 +2870,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>0.86594227999999995</v>
       </c>
@@ -2910,7 +2946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100.158</v>
       </c>
@@ -2990,12 +3026,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1">
         <v>0.73145291999999995</v>
       </c>
@@ -3066,7 +3102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.86099999999999999</v>
       </c>
@@ -3146,7 +3182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.56853924</v>
       </c>
@@ -3217,7 +3253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>0.47715423000000001</v>
       </c>
@@ -3288,7 +3324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.38671313000000002</v>
       </c>
@@ -3359,7 +3395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>0.30204013000000002</v>
       </c>
@@ -3430,7 +3466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0.22484456</v>
       </c>
@@ -3501,7 +3537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>0.15581490000000001</v>
       </c>
@@ -3572,7 +3608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3592,7 +3628,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3612,7 +3648,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3632,7 +3668,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3652,7 +3688,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3672,7 +3708,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3692,7 +3728,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3712,7 +3748,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3732,7 +3768,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3750,20 +3786,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3831,7 +3867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3911,12 +3947,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>0.81921520000000003</v>
       </c>
@@ -3987,7 +4023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100.158</v>
       </c>
@@ -4067,12 +4103,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1">
         <v>0.61074123999999996</v>
       </c>
@@ -4143,7 +4179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.86099999999999999</v>
       </c>
@@ -4223,7 +4259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.44495261000000003</v>
       </c>
@@ -4294,7 +4330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>0.37876819</v>
       </c>
@@ -4365,7 +4401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.31902512</v>
       </c>
@@ -4436,7 +4472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4456,7 +4492,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4476,7 +4512,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4496,7 +4532,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -4516,7 +4552,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4536,7 +4572,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -4556,7 +4592,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4576,7 +4612,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4596,7 +4632,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4616,7 +4652,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -4636,7 +4672,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4656,7 +4692,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4674,20 +4710,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B1" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4755,7 +4791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -4835,12 +4871,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>0.79347201999999994</v>
       </c>
@@ -4911,7 +4947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>116.16</v>
       </c>
@@ -4991,12 +5027,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1">
         <v>0.64661712000000005</v>
       </c>
@@ -5067,7 +5103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.88200000000000001</v>
       </c>
@@ -5147,7 +5183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.52931423</v>
       </c>
@@ -5218,7 +5254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>0.47786123000000003</v>
       </c>
@@ -5289,7 +5325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.42918279999999998</v>
       </c>
@@ -5360,7 +5396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>0.38202545999999998</v>
       </c>
@@ -5431,7 +5467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0.33523107000000002</v>
       </c>
@@ -5502,7 +5538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>0.24140368344686658</v>
       </c>
@@ -5573,7 +5609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5593,7 +5629,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5613,7 +5649,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5633,7 +5669,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5653,7 +5689,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5673,7 +5709,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5693,7 +5729,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5713,7 +5749,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5733,14 +5769,6 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:C3"/>
@@ -5751,20 +5779,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5832,7 +5860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -5912,12 +5940,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>0.50643751000000004</v>
       </c>
@@ -5937,58 +5965,58 @@
         <v>0.97179431000000005</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J12" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>0.82649504878021418</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K12" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>2.1127970077812901E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L12" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>0.15237698114197273</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M12" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>9.9574103458724805E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N12" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>1.8762078241158733E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O12" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.88166381830011642</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P12" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>0.79360905704880857</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q12" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>2.6298344649153125E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R12" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>0.18009259830203839</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S12" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>8.2353647432306221E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T12" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>2.0115075031032284E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U12" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>0.89753127753666151</v>
       </c>
       <c r="V3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>74.120999999999995</v>
       </c>
@@ -6068,12 +6096,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1">
         <v>0.44886122000000001</v>
       </c>
@@ -6144,7 +6172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.81</v>
       </c>
@@ -6224,7 +6252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.39333770000000001</v>
       </c>
@@ -6295,7 +6323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <v>0.36606931999999998</v>
       </c>
@@ -6366,7 +6394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.33893357000000002</v>
       </c>
@@ -6437,7 +6465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6457,7 +6485,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6477,7 +6505,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -6497,7 +6525,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -6517,7 +6545,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -6537,7 +6565,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -6557,7 +6585,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -6577,7 +6605,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -6597,7 +6625,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -6617,7 +6645,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -6637,7 +6665,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6657,14 +6685,6 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:C3"/>
@@ -6675,20 +6695,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8F31A6-F38F-4AF1-9E05-4E58716C0E4E}">
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6756,825 +6776,468 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.53624512999999996</v>
+        <f>(P2/$A$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
+        <v>0.87812938389112538</v>
       </c>
       <c r="E2" s="1">
+        <f>(Q2/$B$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.46375486999999999</v>
+        <f>(R2/$C$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
+        <v>0.12187061610887462</v>
       </c>
       <c r="G2" s="1">
-        <v>2.0341350000000001E-2</v>
+        <f>(S2/$A$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
+        <v>3.7926556011779244E-2</v>
       </c>
       <c r="H2" s="1">
+        <f>(T2/$B$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.97965864999999996</v>
+        <f>(U2/$C$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
+        <v>0.96207344398822081</v>
       </c>
       <c r="J2" s="1">
-        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
-        <v>0.85413976169832684</v>
+        <v>0.97573919636087947</v>
       </c>
       <c r="K2" s="1">
-        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
-        <v>0.14586023830167327</v>
+        <v>2.4260803639120546E-2</v>
       </c>
       <c r="M2" s="1">
-        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
-        <v>9.5148004892831151E-2</v>
+        <v>0.18035563082133785</v>
       </c>
       <c r="N2" s="1">
-        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
-        <v>0.90485199510716896</v>
+        <v>0.81964436917866212</v>
       </c>
       <c r="P2" s="1">
-        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
-        <v>0.82631452339454359</v>
+        <f>(J2*$A$6)/((J2*$A$6)+(K2*$B$6)+(L2*$C$6))</f>
+        <v>0.9717913849842883</v>
       </c>
       <c r="Q2" s="1">
-        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <f>(K2*$B$6)/((J2*$A$6)+(K2*$B$6)+(L2*$C$6))</f>
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
-        <v>0.17368547660545638</v>
+        <f>(L2*$C$6)/((J2*$A$6)+(K2*$B$6)+(L2*$C$6))</f>
+        <v>2.820861501571173E-2</v>
       </c>
       <c r="S2" s="1">
-        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
-        <v>7.870640072459914E-2</v>
+        <f>(M2*$A$6)/((M2*$A$6)+(N2*$B$6)+(O2*$C$6))</f>
+        <v>0.15858964008655638</v>
       </c>
       <c r="T2" s="1">
-        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <f>(N2*$B$6)/((M2*$A$6)+(N2*$B$6)+(O2*$C$6))</f>
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
-        <v>0.92129359927540078</v>
+        <f>(O2*$C$6)/((M2*$A$6)+(N2*$B$6)+(O2*$C$6))</f>
+        <v>0.84141035991344371</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
-        <v>0.49858616</v>
+        <f t="shared" ref="D3:D5" si="0">(P3/$A$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
+        <v>0.66951699939587095</v>
       </c>
       <c r="E3" s="1">
-        <v>5.0006299999999997E-2</v>
+        <f t="shared" ref="E3:E5" si="1">(Q3/$B$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
+        <v>4.9972428199834398E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>0.45140754</v>
+        <f t="shared" ref="F3:F5" si="2">(R3/$C$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
+        <v>0.28051057240429461</v>
       </c>
       <c r="G3" s="1">
-        <v>1.8995399999999999E-2</v>
+        <f t="shared" ref="G3:G5" si="3">(S3/$A$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
+        <v>5.4767387370496294E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>2.67812E-3</v>
+        <f t="shared" ref="H3:H5" si="4">(T3/$B$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
+        <v>2.4065838010225844E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>0.97832649000000005</v>
+        <f t="shared" ref="I3:I5" si="5">(U3/$C$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
+        <v>0.92116677461927776</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J12" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>0.77770066584549213</v>
+        <v>0.89423713844115704</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K12" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>8.3264405664242286E-2</v>
+        <v>3.8639876352395672E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L12" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>0.13903492849026575</v>
+        <v>6.7122985206447341E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M12" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>8.8335798723423412E-2</v>
+        <v>0.23431719148236455</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N12" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>1.3294767366985094E-2</v>
+        <v>5.9607004850776947E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O12" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>0.89836943390959156</v>
+        <v>0.70607580366685851</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P12" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>0.74667241086129521</v>
+        <f>(J3*$A$6)/((J3*$A$6)+(K3*$B$6)+(L3*$C$6))</f>
+        <v>0.88687730825416167</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q12" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>8.9022244321037253E-2</v>
+        <f>(K3*$B$6)/((J3*$A$6)+(K3*$B$6)+(L3*$C$6))</f>
+        <v>3.5405089871105723E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R12" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>0.16430534481766743</v>
+        <f>(L3*$C$6)/((J3*$A$6)+(K3*$B$6)+(L3*$C$6))</f>
+        <v>7.771760187473252E-2</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S12" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>7.3070533989097908E-2</v>
+        <f t="shared" ref="S3:S5" si="6">(M3*$A$6)/((M3*$A$6)+(N3*$B$6)+(O3*$C$6))</f>
+        <v>0.21039644935785384</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T12" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>1.2246381992776967E-2</v>
+        <f t="shared" ref="T3:T5" si="7">(N3*$B$6)/((M3*$A$6)+(N3*$B$6)+(O3*$C$6))</f>
+        <v>4.9448222582655965E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U12" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>0.91468308401812515</v>
+        <f t="shared" ref="U3:U5" si="8">(O3*$C$6)/((M3*$A$6)+(N3*$B$6)+(O3*$C$6))</f>
+        <v>0.74015532805949025</v>
       </c>
       <c r="V3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>74.120999999999995</v>
+        <v>86.132300000000001</v>
       </c>
       <c r="B4" s="1">
-        <v>88.11</v>
+        <v>46.067999999999998</v>
       </c>
       <c r="C4" s="2">
         <v>18.015000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.45994518000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.40583091472616994</v>
       </c>
       <c r="E4" s="1">
-        <v>0.10454181999999999</v>
+        <f t="shared" si="1"/>
+        <v>7.1458901289316035E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.43551300999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.52271018398451397</v>
       </c>
       <c r="G4" s="1">
-        <v>1.7474719999999999E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.977869797046834E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>5.20653E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.369387389902136E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.97731875000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.86652742813051042</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69949458169623568</v>
+        <v>0.75036307890914955</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.16971911246255844</v>
+        <v>7.6488623527513303E-2</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13078630584120599</v>
+        <v>0.17314829756333708</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0895625500016818E-2</v>
+        <v>0.29980013324450366</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5729159512361037E-2</v>
+        <v>0.11681101487896958</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="5"/>
-        <v>0.89337521498762218</v>
+        <v>0.58338885187652667</v>
       </c>
       <c r="P4" s="1">
+        <f>(J4*$A$6)/((J4*$A$6)+(K4*$B$6)+(L4*$C$6))</f>
+        <v>0.73336981314591843</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>(K4*$B$6)/((J4*$A$6)+(K4*$B$6)+(L4*$C$6))</f>
+        <v>6.9066516315174506E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f>(L4*$C$6)/((J4*$A$6)+(K4*$B$6)+(L4*$C$6))</f>
+        <v>0.19756367053890703</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="6"/>
-        <v>0.66652136058056388</v>
-      </c>
-      <c r="Q4" s="1">
+        <v>0.27535011068697096</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="7"/>
-        <v>0.18008684435426878</v>
-      </c>
-      <c r="R4" s="1">
+        <v>9.9118874869149609E-2</v>
+      </c>
+      <c r="U4" s="1">
         <f t="shared" si="8"/>
-        <v>0.15339179506516737</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="9"/>
-        <v>6.690174272284978E-2</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="10"/>
-        <v>2.3695152687738967E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="11"/>
-        <v>0.9094031045894112</v>
+        <v>0.62553101444387949</v>
       </c>
       <c r="V4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1">
-        <v>0.41862020999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.35870852506550499</v>
       </c>
       <c r="E5" s="1">
-        <v>0.16436563000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.11305162323276002</v>
       </c>
       <c r="F5" s="1">
-        <v>0.41701414999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.52823985170173504</v>
       </c>
       <c r="G5" s="1">
-        <v>1.5795440000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.11446880143377468</v>
       </c>
       <c r="H5" s="1">
-        <v>7.5675200000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.7015593859976111E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.97663703000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.80851560470624917</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.61887375068211359</v>
+        <v>0.69142905491158302</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.25939123250707846</v>
+        <v>0.12615280480582114</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12173501681080796</v>
+        <v>0.18241814028259581</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="3"/>
-        <v>7.2883394735918455E-2</v>
+        <v>0.37666043491095147</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="4"/>
-        <v>3.7274588245729087E-2</v>
+        <v>0.1467086490209584</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="5"/>
-        <v>0.88984201701835253</v>
+        <v>0.47663091606809016</v>
       </c>
       <c r="P5" s="1">
+        <f>(J5*$A$6)/((J5*$A$6)+(K5*$B$6)+(L5*$C$6))</f>
+        <v>0.67724508310141107</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>(K5*$B$6)/((J5*$A$6)+(K5*$B$6)+(L5*$C$6))</f>
+        <v>0.11416008374334377</v>
+      </c>
+      <c r="R5" s="1">
+        <f>(L5*$C$6)/((J5*$A$6)+(K5*$B$6)+(L5*$C$6))</f>
+        <v>0.2085948331552451</v>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="6"/>
-        <v>0.58518689521290701</v>
-      </c>
-      <c r="Q5" s="1">
+        <v>0.35246570369593289</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="7"/>
-        <v>0.27312995970846943</v>
-      </c>
-      <c r="R5" s="1">
+        <v>0.12683575887341633</v>
+      </c>
+      <c r="U5" s="1">
         <f t="shared" si="8"/>
-        <v>0.14168314507862359</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="9"/>
-        <v>6.0250825804923455E-2</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="10"/>
-        <v>3.4313797525586019E-2</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="11"/>
-        <v>0.90543537666949048</v>
+        <v>0.52069853743065075</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.81</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="B6" s="1">
-        <v>0.90200000000000002</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="C6" s="2">
         <v>0.997</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.37345696</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.22996074999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.3965823</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.397381E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9.7509099999999998E-3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.97627527999999997</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.53561661431117236</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.35207047913798112</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11231290655084647</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="3"/>
-        <v>6.4348067740440981E-2</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="4"/>
-        <v>4.7932296488049135E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="5"/>
-        <v>0.88771963577150992</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="6"/>
-        <v>0.50249360232845164</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="7"/>
-        <v>0.36781346740489423</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="8"/>
-        <v>0.12969293026665421</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3163224708298276E-2</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="10"/>
-        <v>4.4098677087152129E-2</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="11"/>
-        <v>0.90273809820454964</v>
-      </c>
-      <c r="V6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <v>0.32389046999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.30179077999999998</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.37431874999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.20257E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.174914E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.97622516000000004</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4498718160231176</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4474649229511603</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10266326102572201</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5332596408957768E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="4"/>
-        <v>5.7708418857343916E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="5"/>
-        <v>0.88695898473369839</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="6"/>
-        <v>0.41867061930647076</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="7"/>
-        <v>0.46372895507615408</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="8"/>
-        <v>0.1176004256173752</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="9"/>
-        <v>4.5679525502929495E-2</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="10"/>
-        <v>5.3051934970565318E-2</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="11"/>
-        <v>0.90126853952650521</v>
-      </c>
-      <c r="V7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <v>0.26966377000000002</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.38054895999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.34978725999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9.9628400000000006E-3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.355605E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.97648111999999998</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36198216130142724</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.54530253792730932</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>9.2715300771263595E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="3"/>
-        <v>4.5858585911501909E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.6609025155031226E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="5"/>
-        <v>0.88753238893346686</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="6"/>
-        <v>0.33413524929512284</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="7"/>
-        <v>0.56052393530298894</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="8"/>
-        <v>0.10534081540188815</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="9"/>
-        <v>3.782260836491564E-2</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="10"/>
-        <v>6.1176610816483949E-2</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="11"/>
-        <v>0.90100078081860047</v>
-      </c>
-      <c r="V8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <v>0.21053039000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.46726876000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.32220084999999998</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7.7833900000000003E-3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.516736E-2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.97704924000000004</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27237053013332313</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.64531904185482636</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2310428011850761E-2</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="3"/>
-        <v>3.5884008439268499E-2</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="4"/>
-        <v>7.4645660573102832E-2</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="5"/>
-        <v>0.88947033098762862</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="6"/>
-        <v>0.24935550865690345</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="7"/>
-        <v>0.65789237020329616</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="8"/>
-        <v>9.2752121139800414E-2</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="9"/>
-        <v>2.9562749730968785E-2</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="10"/>
-        <v>6.8480979096712052E-2</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="11"/>
-        <v>0.90195627117231914</v>
-      </c>
-      <c r="V9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <v>0.14611568999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.56327987999999996</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.29060441999999997</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5.4592599999999996E-3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.6582949999999999E-2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.97795779000000005</v>
-      </c>
-      <c r="J10" s="1">
-        <f>(P10/$A$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
-        <v>0.1815569439132402</v>
-      </c>
-      <c r="K10" s="1">
-        <f>(Q10/$B$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
-        <v>0.74714115931511971</v>
-      </c>
-      <c r="L10" s="1">
-        <f>(R10/$C$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
-        <v>7.1301896771640033E-2</v>
-      </c>
-      <c r="M10" s="1">
-        <f>(S10/$A$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
-        <v>2.5242735631546599E-2</v>
-      </c>
-      <c r="N10" s="1">
-        <f>(T10/$B$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
-        <v>8.1851538051845654E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <f>(U10/$C$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
-        <v>0.89290572631660781</v>
-      </c>
-      <c r="P10" s="1">
-        <f>(D10*$A$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
-        <v>0.16485371306175112</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>(E10*$B$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
-        <v>0.75545752270402167</v>
-      </c>
-      <c r="R10" s="1">
-        <f>(F10*$C$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
-        <v>7.9688764234227161E-2</v>
-      </c>
-      <c r="S10" s="1">
-        <f>(G10*$A$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
-        <v>2.0768449733245712E-2</v>
-      </c>
-      <c r="T10" s="1">
-        <f>(H10*$B$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
-        <v>7.49921878391243E-2</v>
-      </c>
-      <c r="U10" s="1">
-        <f>(I10*$C$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
-        <v>0.90423936242763003</v>
-      </c>
-      <c r="V10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>7.5976600000000005E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.669879</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.25414439999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.91508E-3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.7802809999999999E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.97928210999999998</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" ref="J11:J12" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
-        <v>9.0314237371592457E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" ref="K11:K12" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
-        <v>0.8500317356920678</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" ref="L11:L12" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
-        <v>5.9654026936339768E-2</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" ref="M11:M12" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
-        <v>1.3540245270473759E-2</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" ref="N11:N12" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
-        <v>8.8272824477502926E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" ref="O11:O12" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
-        <v>0.89818693025202323</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" ref="P11:P12" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
-        <v>8.1340816621079629E-2</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" ref="Q11:Q12" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
-        <v>0.85252862121470852</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" ref="R11:R12" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
-        <v>6.6130562164211926E-2</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" ref="S11:S12" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
-        <v>1.1122399606070383E-2</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" ref="T11:T12" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
-        <v>8.0745904673601918E-2</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" ref="U11:U12" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
-        <v>0.90813169572032781</v>
-      </c>
-      <c r="V11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.78745783999999996</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.21254216000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.881524E-2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.98118475999999999</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="13"/>
-        <v>0.95244688313485804</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="14"/>
-        <v>4.7553116865141888E-2</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="16"/>
-        <v>9.3929206872812518E-2</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="17"/>
-        <v>0.90607079312718741</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="19"/>
-        <v>0.94770045244198509</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="20"/>
-        <v>5.2299547558015018E-2</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="22"/>
-        <v>8.5746523954924408E-2</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="23"/>
-        <v>0.91425347604507556</v>
-      </c>
-      <c r="V12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7594,7 +7257,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7614,7 +7277,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7634,7 +7297,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7654,7 +7317,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -7674,7 +7337,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -7694,7 +7357,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7714,7 +7377,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7734,13 +7397,1077 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="V4" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.53624512999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.46375486999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.0341350000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.97965864999999996</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.85413976169832684</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.14586023830167327</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>9.5148004892831151E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.90485199510716896</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.82631452339454359</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.17368547660545638</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>7.870640072459914E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.92129359927540078</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1">
+        <v>0.49858616</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.0006299999999997E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.45140754</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.8995399999999999E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.67812E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.97832649000000005</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.77770066584549213</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>8.3264405664242286E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.13903492849026575</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>8.8335798723423412E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>1.3294767366985094E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.89836943390959156</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.74667241086129521</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>8.9022244321037253E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.16430534481766743</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>7.3070533989097908E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>1.2246381992776967E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.91468308401812515</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>74.120999999999995</v>
+      </c>
+      <c r="B4" s="1">
+        <v>88.11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.45994518000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.10454181999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.43551300999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.7474719999999999E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.20653E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.97731875000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69949458169623568</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16971911246255844</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13078630584120599</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0895625500016818E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5729159512361037E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89337521498762218</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66652136058056388</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.18008684435426878</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.15339179506516737</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>6.690174272284978E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3695152687738967E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.9094031045894112</v>
+      </c>
+      <c r="V4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1">
+        <v>0.41862020999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.16436563000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.41701414999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.5795440000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.5675200000000003E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.97663703000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61887375068211359</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25939123250707846</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12173501681080796</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2883394735918455E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7274588245729087E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88984201701835253</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.58518689521290701</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.27312995970846943</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.14168314507862359</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>6.0250825804923455E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>3.4313797525586019E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90543537666949048</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.37345696</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22996074999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3965823</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.397381E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.7509099999999998E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.97627527999999997</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53561661431117236</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35207047913798112</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11231290655084647</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4348067740440981E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7932296488049135E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88771963577150992</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.50249360232845164</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.36781346740489423</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12969293026665421</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>5.3163224708298276E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>4.4098677087152129E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90273809820454964</v>
+      </c>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>0.32389046999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.30179077999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.37431874999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.20257E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.174914E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.97622516000000004</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4498718160231176</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4474649229511603</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10266326102572201</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5332596408957768E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7708418857343916E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88695898473369839</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.41867061930647076</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46372895507615408</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1176004256173752</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5679525502929495E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>5.3051934970565318E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90126853952650521</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>0.26966377000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.38054895999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.34978725999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.9628400000000006E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.355605E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.97648111999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36198216130142724</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54530253792730932</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2715300771263595E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5858585911501909E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6609025155031226E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88753238893346686</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.33413524929512284</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.56052393530298894</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.10534081540188815</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>3.782260836491564E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>6.1176610816483949E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90100078081860047</v>
+      </c>
+      <c r="V8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>0.21053039000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.46726876000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.32220084999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.7833900000000003E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.516736E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.97704924000000004</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27237053013332313</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64531904185482636</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2310428011850761E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5884008439268499E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>7.4645660573102832E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88947033098762862</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.24935550865690345</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65789237020329616</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>9.2752121139800414E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9562749730968785E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>6.8480979096712052E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90195627117231914</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>0.14611568999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.56327987999999996</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.29060441999999997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.4592599999999996E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.6582949999999999E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.97795779000000005</v>
+      </c>
+      <c r="J10" s="1">
+        <f>(P10/$A$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.1815569439132402</v>
+      </c>
+      <c r="K10" s="1">
+        <f>(Q10/$B$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.74714115931511971</v>
+      </c>
+      <c r="L10" s="1">
+        <f>(R10/$C$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>7.1301896771640033E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f>(S10/$A$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>2.5242735631546599E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f>(T10/$B$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>8.1851538051845654E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <f>(U10/$C$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.89290572631660781</v>
+      </c>
+      <c r="P10" s="1">
+        <f>(D10*$A$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.16485371306175112</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>(E10*$B$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.75545752270402167</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(F10*$C$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>7.9688764234227161E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(G10*$A$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>2.0768449733245712E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(H10*$B$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>7.49921878391243E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(I10*$C$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.90423936242763003</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>7.5976600000000005E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.669879</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.25414439999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.91508E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.7802809999999999E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.97928210999999998</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J12" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>9.0314237371592457E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K12" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.8500317356920678</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L12" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>5.9654026936339768E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M12" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>1.3540245270473759E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N12" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>8.8272824477502926E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:O12" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.89818693025202323</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P12" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>8.1340816621079629E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q12" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.85252862121470852</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R12" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>6.6130562164211926E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S12" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>1.1122399606070383E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T12" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>8.0745904673601918E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U12" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.90813169572032781</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.78745783999999996</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.21254216000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.881524E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.98118475999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.95244688313485804</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="14"/>
+        <v>4.7553116865141888E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="16"/>
+        <v>9.3929206872812518E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="17"/>
+        <v>0.90607079312718741</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="19"/>
+        <v>0.94770045244198509</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="20"/>
+        <v>5.2299547558015018E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="22"/>
+        <v>8.5746523954924408E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="23"/>
+        <v>0.91425347604507556</v>
+      </c>
+      <c r="V12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C1EE7-426F-4F4D-8787-599F512C08B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDC5E2E-C771-4697-B993-9C8FCF552206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="1764" windowWidth="17280" windowHeight="9960" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="1-Butanol AceticAcid Water" sheetId="9" r:id="rId6"/>
     <sheet name="2-MeTHF Ethanol Water" sheetId="11" r:id="rId7"/>
     <sheet name="1-Butanol EthylAcetate Water" sheetId="10" r:id="rId8"/>
+    <sheet name="Beta-Pinene Ethanol Water" sheetId="13" r:id="rId9"/>
+    <sheet name="Heptane Ethanol Water" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>CPME</t>
   </si>
@@ -278,12 +280,57 @@
   <si>
     <t>3 1,35 5,65</t>
   </si>
+  <si>
+    <t>Beta-Pinene</t>
+  </si>
+  <si>
+    <t>9 0 1</t>
+  </si>
+  <si>
+    <t>8,5 0,5 1</t>
+  </si>
+  <si>
+    <t>8 1 1</t>
+  </si>
+  <si>
+    <t>7,5 1,5 1</t>
+  </si>
+  <si>
+    <t>7 2 1</t>
+  </si>
+  <si>
+    <t>6,5 2,5 1</t>
+  </si>
+  <si>
+    <t>6 3 1</t>
+  </si>
+  <si>
+    <t>5,5 3,5 1</t>
+  </si>
+  <si>
+    <t>4,5 4,5 1</t>
+  </si>
+  <si>
+    <t>4 5 1</t>
+  </si>
+  <si>
+    <t>3,5 5,5 1</t>
+  </si>
+  <si>
+    <t>3 6 1</t>
+  </si>
+  <si>
+    <t>4,5 5 0,5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0#######"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +349,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -395,7 +448,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -412,6 +465,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1769,6 +1825,1288 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95804CEA-C971-4DFE-B29D-1602BED31648}">
+  <dimension ref="A1:V27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.99975206999999999</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2.4792999999999999E-4</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1.4034E-6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.99999859999999996</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.99996941231294789</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>3.0587687052130653E-5</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>1.1377687069900139E-5</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.99998862231293006</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.9999554159398456</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>4.4584060154368085E-5</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>7.8057831032013923E-6</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.99999219421689678</v>
+      </c>
+      <c r="V2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8">
+        <v>0.99002161</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9.5296400000000007E-3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4.4873999999999999E-4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3.6823000000000003E-5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.12608167000000001</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.87388149999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.99612265772422337</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>3.8216511391207476E-3</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>5.5691136655885636E-5</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>2.3294091361139962E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.31789592436309377</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.68187113472329475</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.99551326287410724</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>4.4056112553328046E-3</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>8.1125870559938096E-5</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>1.711761646002702E-4</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.26946562935405721</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.73036319448134257</v>
+      </c>
+      <c r="V3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>100.20099999999999</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46.067999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.98512761000000004</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.435823E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5.1416000000000005E-4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2.2029999999999999E-4</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.22736591</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.77241378999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99416074072265825</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7752584543340141E-3</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4000823007808019E-5</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1836727133593961E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48691021900807385</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.51190610827856675</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99325108189097411</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>6.6557157181554123E-3</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>9.3202390870494886E-5</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>9.042610825146678E-4</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>0.42907379831305015</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.57002194060443512</v>
+      </c>
+      <c r="V4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="8">
+        <v>0.98136418000000003</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.8076600000000002E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.5922000000000003E-4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6.7097999999999995E-4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.30826603000000002</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.69106299000000004</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99264260766888601</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2876223573219712E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9769973791995488E-5</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2138665582063341E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.58850524204630139</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40828089139549228</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99150174524648493</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>8.3966747586042157E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0157999491096679E-4</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>2.5163948588406782E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.53152315141358009</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.46596045372757927</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.97813232999999999</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.1274609999999999E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5.9305999999999996E-4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.44236E-3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.37395995999999998</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.62459768000000004</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9913319771390261</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5938844473685688E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4138413605227732E-5</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>6.3391109906087255E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.65506770856907082</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.33859318044032038</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98999235654833873</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>9.8997251575622339E-3</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0791829409915155E-4</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0490741954536964E-3</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.60185308333580656</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.39309784246873974</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="8">
+        <v>0.97525503000000002</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.412516E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6.1981999999999998E-4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2.52892E-3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.42816090000000001</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.56931019000000005</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99015981989486246</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7625597116886807E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7620393448803586E-5</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0389824248175621E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70111057168856161</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.28849960406326292</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98864308536847867</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1243948272685676E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1296635883568313E-4</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>8.3812919215673493E-3</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.65239433827974114</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.33922436979869142</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="8">
+        <v>0.97263944000000002</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.671871E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6.4185000000000002E-4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3.8930100000000001E-3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.47348948000000002</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.52261751000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98909005551236795</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0829436187115089E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0508300517006661E-5</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5143480313706187E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.73410285516991625</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25075366451637759</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98741219116344403</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2470658817065723E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>1.171500194901839E-4</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>1.2337483816618667E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>0.68988819464378726</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.2977743215395941</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="8">
+        <v>0.97034244999999997</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.9001099999999998E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6.5645000000000005E-4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5.4882200000000003E-3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.51185544000000005</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.48265634000000002</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98814644144751584</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1771102775833394E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2455776650770479E-5</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0399821074104461E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75831312060637535</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22128705831952031</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98632696460125824</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3553068967830253E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1996643091153476E-4</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>1.6753171730203732E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>0.71835671187767358</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.26489011639212262</v>
+      </c>
+      <c r="V9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="8">
+        <v>0.96802960999999998</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3.1295669999999998E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6.7471999999999996E-4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>7.2585100000000001E-3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.54461543000000001</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.44812606999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <f>(P10/$A$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.98719461093253991</v>
+      </c>
+      <c r="K10" s="1">
+        <f>(Q10/$B$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>1.2720517764035356E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f>(R10/$C$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>8.4871303424723777E-5</v>
+      </c>
+      <c r="M10" s="1">
+        <f>(S10/$A$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>2.5960234704747311E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f>(T10/$B$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.77634985736220474</v>
+      </c>
+      <c r="O10" s="1">
+        <f>(U10/$C$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.19768990793304794</v>
+      </c>
+      <c r="P10" s="1">
+        <f>(D10*$A$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.9852324728099584</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>(E10*$B$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>1.4644064461635541E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(F10*$C$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>1.2346272840606937E-4</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(G10*$A$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>2.1461126726843086E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(H10*$B$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.74032477534456864</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(I10*$C$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.23821409792858836</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="8">
+        <v>0.96603128000000005</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.3283979999999998E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>6.8475000000000003E-4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9.1685599999999992E-3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.57287219</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.41795925</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J17" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.98636842992964036</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K17" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>1.3545331178057377E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L17" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>8.6238892302320719E-5</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M17" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>3.1719353861656301E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N17" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.78992769664802875</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:O17" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.17835294949031497</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P17" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.98428294080840928</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q17" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>1.5591622953523718E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R17" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>1.2543623806712071E-4</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S17" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>2.6369605453827806E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T17" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.75750855654442573</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U17" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.21612183800174656</v>
+      </c>
+      <c r="V11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="8">
+        <v>0.96400370000000002</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3.5298459999999997E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>6.9784000000000003E-4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.117227E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.59740683000000006</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.39142089000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98552889205993954</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="13"/>
+        <v>1.4383110573913024E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="14"/>
+        <v>8.7997366147581416E-5</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="15"/>
+        <v>3.7546064142623688E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="16"/>
+        <v>0.8002019021050093</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="17"/>
+        <v>0.16225203375236694</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="18"/>
+        <v>0.98331819467738646</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="19"/>
+        <v>1.6553827874957391E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="20"/>
+        <v>1.2797744765622924E-4</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="21"/>
+        <v>3.1364578626983351E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="22"/>
+        <v>0.77107304322197978</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="23"/>
+        <v>0.19756237815103694</v>
+      </c>
+      <c r="V12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="8">
+        <v>0.96229770000000003</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3.7000039999999998E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>7.0224999999999997E-4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.324932E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.61887539999999996</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.36787528000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98481904797388675</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="13"/>
+        <v>1.5092305464683747E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="14"/>
+        <v>8.8646561429517274E-5</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="15"/>
+        <v>4.3398950812304535E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="16"/>
+        <v>0.80797004885056267</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="17"/>
+        <v>0.14863100033713281</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="18"/>
+        <v>0.98250292882587642</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="19"/>
+        <v>1.7368163621125685E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="20"/>
+        <v>1.2890755299795205E-4</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="21"/>
+        <v>3.6407160183996978E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="22"/>
+        <v>0.78185053492698808</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="23"/>
+        <v>0.18174230488901491</v>
+      </c>
+      <c r="V13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="8">
+        <v>0.96061627999999999</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3.867607E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>7.0764999999999999E-4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.536592E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.63776306000000005</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.34687101999999997</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98411825373419082</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="13"/>
+        <v>1.5792325371322434E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9420894486733077E-5</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="15"/>
+        <v>4.9195320154073977E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="16"/>
+        <v>0.81382492174781684</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="17"/>
+        <v>0.13697975809810914</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="18"/>
+        <v>0.98169819129703206</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="19"/>
+        <v>1.8171789119627864E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="20"/>
+        <v>1.3001958334015248E-4</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="21"/>
+        <v>4.142374778412506E-2</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="22"/>
+        <v>0.7904556066001458</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="23"/>
+        <v>0.16812064561572904</v>
+      </c>
+      <c r="V14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="8">
+        <v>0.94962173000000005</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.9653009999999997E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7.2526000000000003E-4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3.1348250000000001E-2</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.72868646000000004</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.23996529</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="12"/>
+        <v>0.97949488463078127</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="13"/>
+        <v>2.0412843693444302E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="14"/>
+        <v>9.227167577439865E-5</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="15"/>
+        <v>8.9214505304534508E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="16"/>
+        <v>0.82655026751315874</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="17"/>
+        <v>8.4235227182306624E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="18"/>
+        <v>0.97639407741145412</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="19"/>
+        <v>2.3471852953000142E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="20"/>
+        <v>1.3406963554574288E-4</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="21"/>
+        <v>7.6550788476875686E-2</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="22"/>
+        <v>0.81809618780322435</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="23"/>
+        <v>0.10535302371990012</v>
+      </c>
+      <c r="V15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V23"/>
@@ -6699,7 +8037,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7413,7 +8751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -8476,4 +9814,1287 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2F3995-77EE-4507-98EC-F4DE22C970F6}">
+  <dimension ref="A1:V27"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.99845344000000003</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.54656E-3</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5.9138E-6</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.99999408999999995</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.9998208852937297</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>1.791147062703616E-4</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>5.1130131383535304E-5</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.99994886986861653</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.99979521470510979</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>2.0478529489026108E-4</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>4.4719920143798222E-5</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.99995528007985612</v>
+      </c>
+      <c r="V2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10">
+        <v>0.97128764000000001</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2.603594E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2.6764200000000001E-3</v>
+      </c>
+      <c r="G3" s="10">
+        <v>9.1040999999999998E-5</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.11373726000000001</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.88617170000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.98976911010594426</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>9.915454527384961E-3</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>3.1543536667063898E-4</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>6.2748321224844546E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.29296867373819918</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.70640384304955228</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.99065928712256535</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>8.9797359218644398E-3</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>3.6097695557015013E-4</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>5.8458831993295657E-4</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.2469617682659824</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.75245364341408472</v>
+      </c>
+      <c r="V3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>136.23400000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46.067999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.95488530000000005</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.1806589999999998E-2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3.30811E-3</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4.7071E-4</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.21190211</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.78762719000000003</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9835132919985945</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6092632848240692E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>3.940751531648278E-4</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7565871024755311E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46377454488661535</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5334688680109092</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98496637621953931</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4582392812148499E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>4.5123096831232507E-4</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>2.6702619396662816E-3</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>0.40648972474726258</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.59084001331307112</v>
+      </c>
+      <c r="V4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10">
+        <v>0.94173907999999995</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5.4462129999999997E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3.7987899999999998E-3</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.35681E-3</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.29256426000000002</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.70607892999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97839732899352849</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1146213833321402E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5645717315009806E-4</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0535553982711734E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.56841253747596465</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.42453390712576405</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98030631658427225</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9170775456499829E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>5.2290795922795669E-4</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>7.0062431878818486E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.51085928703079464</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.48213446978132357</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.92983342999999996</v>
+      </c>
+      <c r="E6" s="10">
+        <v>6.5927929999999996E-2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4.2386400000000001E-3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2.8456200000000001E-3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.35886277</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.63829161000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97368566273405854</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5800991202407E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1334606353438232E-4</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3500135326120297E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63627220819839192</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3502276564754877</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97601075541519178</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>2.340090951367213E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>5.8833507113614434E-4</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3641432663351268E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58173518776258004</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.40462337957406885</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="10">
+        <v>0.91880298000000005</v>
+      </c>
+      <c r="E7" s="10">
+        <v>7.6557150000000004E-2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4.6398699999999999E-3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>4.9444900000000002E-3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.41392420000000002</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.58113130999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96925154405247083</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.018236005476586E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6609589276323852E-4</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1796263312483757E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.68192198570012053</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29628175098739562</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97196499153540106</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>2.738595152381924E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>6.4905694077966312E-4</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>2.2296510740833709E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.63117540767752756</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.34652808158163872</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="10">
+        <v>0.90861002999999996</v>
+      </c>
+      <c r="E8" s="10">
+        <v>8.639049E-2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4.9994799999999997E-3</v>
+      </c>
+      <c r="G8" s="10">
+        <v>7.6127599999999997E-3</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.46011042000000002</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.53227681999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96509242503187254</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4293408218507265E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.141667496202569E-4</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1571280728156126E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.71312467180755434</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25530404746428953</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.96816744701748692</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1128108871126273E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>7.0444411138689638E-4</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>3.2590725414859446E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>0.66608216854383639</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.30132710604130408</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="10">
+        <v>0.89895356999999998</v>
+      </c>
+      <c r="E9" s="10">
+        <v>9.5707150000000005E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5.3392800000000001E-3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.077759E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.49912256999999999</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.49009984000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96109885185671096</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8240935893146893E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6021225014212921E-4</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2432138774235434E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.73440192243553282</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22316593879023172</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.9645183249912247</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4724136566539943E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>7.5753844223540247E-4</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>4.4104236451499836E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>0.6906844976003581</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.26521126594814215</v>
+      </c>
+      <c r="V9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="10">
+        <v>0.88978623000000001</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.10455523</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5.6585300000000002E-3</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.43661E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.53230155999999995</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.45333235</v>
+      </c>
+      <c r="J10" s="1">
+        <f>(P10/$A$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.95725789671405781</v>
+      </c>
+      <c r="K10" s="1">
+        <f>(Q10/$B$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>4.2038031429558531E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f>(R10/$C$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>7.0407185638366907E-4</v>
+      </c>
+      <c r="M10" s="1">
+        <f>(S10/$A$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>5.4062388158848888E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f>(T10/$B$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.74863031909407296</v>
+      </c>
+      <c r="O10" s="1">
+        <f>(U10/$C$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.19730729274707803</v>
+      </c>
+      <c r="P10" s="1">
+        <f>(D10*$A$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.96100620401904913</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>(E10*$B$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>3.818564427905019E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(F10*$C$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>8.0815170190065891E-4</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(G10*$A$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>5.648996030306571E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(H10*$B$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.70778926799060271</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(I10*$C$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.23572077170633152</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="10">
+        <v>0.88122540999999999</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.11283134</v>
+      </c>
+      <c r="F11" s="10">
+        <v>5.9432499999999997E-3</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1.8315669999999999E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.56068954999999998</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.42099478000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J17" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.95362377065869197</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K17" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>4.563238144271016E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L17" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>7.4384789859789906E-4</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M17" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>6.6228970208010718E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N17" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.75770645265336056</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:O17" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.17606457713862875</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P17" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.95768129351297593</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q17" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>4.146461036463274E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R17" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>8.5409612239124757E-4</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S17" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>6.9486681416404086E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T17" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.71930830172558635</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U17" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.21120501685800955</v>
+      </c>
+      <c r="V11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="10">
+        <v>0.87289172999999998</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.1208856</v>
+      </c>
+      <c r="F12" s="10">
+        <v>6.2226699999999996E-3</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2.2550629999999999E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.58506639999999999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.39238297</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="12"/>
+        <v>0.95004537467828454</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="13"/>
+        <v>4.9171320456514601E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="14"/>
+        <v>7.8330486520087077E-4</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="15"/>
+        <v>7.8686908149058307E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="16"/>
+        <v>0.76296091553222001</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="17"/>
+        <v>0.1583521763187217</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="18"/>
+        <v>0.95440510869584161</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="19"/>
+        <v>4.4695190922306241E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="20"/>
+        <v>8.9970038185220439E-4</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="21"/>
+        <v>8.2821499286953509E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="22"/>
+        <v>0.72661342265354434</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="23"/>
+        <v>0.19056507805950212</v>
+      </c>
+      <c r="V12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="10">
+        <v>0.86470482000000004</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.12879370000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6.5014799999999996E-3</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2.7012930000000001E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.60608578999999996</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.36690128</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="12"/>
+        <v>0.9464907911942857</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="13"/>
+        <v>5.2686150069871519E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="14"/>
+        <v>8.2305873584267704E-4</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="15"/>
+        <v>9.1273010014699521E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="16"/>
+        <v>0.76534652267067615</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="17"/>
+        <v>0.14338046731462414</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9511484386937985</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="19"/>
+        <v>4.790588739375333E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="20"/>
+        <v>9.4567391244812418E-4</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="21"/>
+        <v>9.630951184658168E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="22"/>
+        <v>0.7307106551406285</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="23"/>
+        <v>0.17297983301278988</v>
+      </c>
+      <c r="V13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="10">
+        <v>0.85695381000000004</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.13629300999999999</v>
+      </c>
+      <c r="F14" s="10">
+        <v>6.7531800000000001E-3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3.1670329999999997E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.62427608000000001</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.34405358000000003</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.94308469505249426</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="13"/>
+        <v>5.6055753861469479E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="14"/>
+        <v>8.5955108603637676E-4</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="15"/>
+        <v>0.10391531264936713</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="16"/>
+        <v>0.7655207838025615</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="17"/>
+        <v>0.13056390354807149</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="18"/>
+        <v>0.94802615492875097</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="19"/>
+        <v>5.0985929139882674E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="20"/>
+        <v>9.8791593136630224E-4</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="21"/>
+        <v>0.10986433233053694</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="22"/>
+        <v>0.73230951439885128</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="23"/>
+        <v>0.15782615327061192</v>
+      </c>
+      <c r="V14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="10">
+        <v>0.80901798999999996</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.18270852000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>8.2734899999999997E-3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>6.5142740000000005E-2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.69731083000000005</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.23754644</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="12"/>
+        <v>0.92116231669791904</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="13"/>
+        <v>7.7748159266602057E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="14"/>
+        <v>1.0895240354789292E-3</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="15"/>
+        <v>0.18442554105656345</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="16"/>
+        <v>0.73779343508206729</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="17"/>
+        <v>7.7781023861369369E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="18"/>
+        <v>0.92788405640706406</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="19"/>
+        <v>7.0861147846319153E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="20"/>
+        <v>1.2547957466168172E-3</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="21"/>
+        <v>0.19600470491843064</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="22"/>
+        <v>0.70948094351829027</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="23"/>
+        <v>9.4514351563279184E-2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDC5E2E-C771-4697-B993-9C8FCF552206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72D1E6-F2CD-4DC0-B14E-9F01A6FA8E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -448,11 +448,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,9 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -911,11 +910,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1">
         <v>0.94202430999999998</v>
       </c>
@@ -1067,11 +1066,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1">
         <v>0.93905417999999996</v>
       </c>
@@ -1827,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95804CEA-C971-4DFE-B29D-1602BED31648}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,7 +1908,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1917,22 +1916,22 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>0.99975206999999999</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>2.4792999999999999E-4</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>1.4034E-6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="4">
         <v>0.99999859999999996</v>
       </c>
       <c r="J2" s="1">
@@ -1988,27 +1987,27 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4">
         <v>0.99002161</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>9.5296400000000007E-3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>4.4873999999999999E-4</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <v>3.6823000000000003E-5</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="4">
         <v>0.12608167000000001</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="4">
         <v>0.87388149999999998</v>
       </c>
       <c r="J3" s="1">
@@ -2073,22 +2072,22 @@
       <c r="C4" s="2">
         <v>18.015000000000001</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>0.98512761000000004</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>1.435823E-2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>5.1416000000000005E-4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>2.2029999999999999E-4</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>0.22736591</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>0.77241378999999999</v>
       </c>
       <c r="J4" s="1">
@@ -2144,27 +2143,27 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8">
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4">
         <v>0.98136418000000003</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>1.8076600000000002E-2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>5.5922000000000003E-4</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>6.7097999999999995E-4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <v>0.30826603000000002</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="4">
         <v>0.69106299000000004</v>
       </c>
       <c r="J5" s="1">
@@ -2229,22 +2228,22 @@
       <c r="C6" s="2">
         <v>0.997</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>0.97813232999999999</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>2.1274609999999999E-2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>5.9305999999999996E-4</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>1.44236E-3</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="4">
         <v>0.37395995999999998</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="4">
         <v>0.62459768000000004</v>
       </c>
       <c r="J6" s="1">
@@ -2300,22 +2299,22 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>0.97525503000000002</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>2.412516E-2</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>6.1981999999999998E-4</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>2.52892E-3</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <v>0.42816090000000001</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="4">
         <v>0.56931019000000005</v>
       </c>
       <c r="J7" s="1">
@@ -2371,22 +2370,22 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>0.97263944000000002</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>2.671871E-2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>6.4185000000000002E-4</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>3.8930100000000001E-3</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
         <v>0.47348948000000002</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="4">
         <v>0.52261751000000001</v>
       </c>
       <c r="J8" s="1">
@@ -2442,22 +2441,22 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>0.97034244999999997</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>2.9001099999999998E-2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>6.5645000000000005E-4</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>5.4882200000000003E-3</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>0.51185544000000005</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="4">
         <v>0.48265634000000002</v>
       </c>
       <c r="J9" s="1">
@@ -2513,22 +2512,22 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <v>0.96802960999999998</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <v>3.1295669999999998E-2</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>6.7471999999999996E-4</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>7.2585100000000001E-3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
         <v>0.54461543000000001</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="4">
         <v>0.44812606999999999</v>
       </c>
       <c r="J10" s="1">
@@ -2584,70 +2583,70 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <v>0.96603128000000005</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <v>3.3283979999999998E-2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>6.8475000000000003E-4</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>9.1685599999999992E-3</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="4">
         <v>0.57287219</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="4">
         <v>0.41795925</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:J17" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="J11:J15" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>0.98636842992964036</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11:K17" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="K11:K15" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>1.3545331178057377E-2</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:L17" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="L11:L15" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>8.6238892302320719E-5</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" ref="M11:M17" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="M11:M15" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>3.1719353861656301E-2</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N17" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="N11:N15" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>0.78992769664802875</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:O17" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="O11:O15" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>0.17835294949031497</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11:P17" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="P11:P15" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>0.98428294080840928</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" ref="Q11:Q17" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="Q11:Q15" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>1.5591622953523718E-2</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ref="R11:R17" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="R11:R15" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>1.2543623806712071E-4</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" ref="S11:S17" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="S11:S15" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>2.6369605453827806E-2</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" ref="T11:T17" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="T11:T15" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>0.75750855654442573</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11:U17" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="U11:U15" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>0.21612183800174656</v>
       </c>
       <c r="V11" t="s">
@@ -2655,22 +2654,22 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <v>0.96400370000000002</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <v>3.5298459999999997E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <v>6.9784000000000003E-4</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <v>1.117227E-2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="4">
         <v>0.59740683000000006</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="4">
         <v>0.39142089000000002</v>
       </c>
       <c r="J12" s="1">
@@ -2726,22 +2725,22 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D13" s="8">
+      <c r="D13" s="4">
         <v>0.96229770000000003</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <v>3.7000039999999998E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="4">
         <v>7.0224999999999997E-4</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>1.324932E-2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="4">
         <v>0.61887539999999996</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="4">
         <v>0.36787528000000003</v>
       </c>
       <c r="J13" s="1">
@@ -2797,22 +2796,22 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D14" s="8">
+      <c r="D14" s="4">
         <v>0.96061627999999999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <v>3.867607E-2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <v>7.0764999999999999E-4</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>1.536592E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="4">
         <v>0.63776306000000005</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="4">
         <v>0.34687101999999997</v>
       </c>
       <c r="J14" s="1">
@@ -2868,22 +2867,22 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D15" s="8">
+      <c r="D15" s="4">
         <v>0.94962173000000005</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="4">
         <v>4.9653009999999997E-2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="4">
         <v>7.2526000000000003E-4</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="4">
         <v>3.1348250000000001E-2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="4">
         <v>0.72868646000000004</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="4">
         <v>0.23996529</v>
       </c>
       <c r="J15" s="1">
@@ -2958,7 +2957,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2978,7 +2977,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2998,7 +2997,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3018,7 +3017,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3037,66 +3036,6 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3270,11 +3209,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1">
         <v>0.90261424999999995</v>
       </c>
@@ -3426,11 +3365,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1">
         <v>0.75097910000000001</v>
       </c>
@@ -4209,11 +4148,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1">
         <v>0.86594227999999995</v>
       </c>
@@ -4365,11 +4304,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1">
         <v>0.73145291999999995</v>
       </c>
@@ -5286,11 +5225,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1">
         <v>0.81921520000000003</v>
       </c>
@@ -5442,11 +5381,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1">
         <v>0.61074123999999996</v>
       </c>
@@ -6210,11 +6149,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1">
         <v>0.79347201999999994</v>
       </c>
@@ -6366,11 +6305,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1">
         <v>0.64661712000000005</v>
       </c>
@@ -7279,11 +7218,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1">
         <v>0.50643751000000004</v>
       </c>
@@ -7435,11 +7374,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1">
         <v>0.44886122000000001</v>
       </c>
@@ -8195,11 +8134,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D5" si="0">(P3/$A$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
         <v>0.66951699939587095</v>
@@ -8351,11 +8290,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0.35870852506550499</v>
@@ -8910,11 +8849,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="1">
         <v>0.49858616</v>
       </c>
@@ -9066,11 +9005,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1">
         <v>0.41862020999999999</v>
       </c>
@@ -9818,10 +9757,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2F3995-77EE-4507-98EC-F4DE22C970F6}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9908,22 +9847,22 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>0.99845344000000003</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="5">
         <v>1.54656E-3</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="5">
         <v>5.9138E-6</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="5">
         <v>0.99999408999999995</v>
       </c>
       <c r="J2" s="1">
@@ -9979,27 +9918,27 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5">
         <v>0.97128764000000001</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <v>2.603594E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>2.6764200000000001E-3</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="5">
         <v>9.1040999999999998E-5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <v>0.11373726000000001</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <v>0.88617170000000001</v>
       </c>
       <c r="J3" s="1">
@@ -10064,22 +10003,22 @@
       <c r="C4" s="2">
         <v>18.015000000000001</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>0.95488530000000005</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
         <v>4.1806589999999998E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>3.30811E-3</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="5">
         <v>4.7071E-4</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <v>0.21190211</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>0.78762719000000003</v>
       </c>
       <c r="J4" s="1">
@@ -10135,27 +10074,27 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10">
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
         <v>0.94173907999999995</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <v>5.4462129999999997E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <v>3.7987899999999998E-3</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="5">
         <v>1.35681E-3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="5">
         <v>0.29256426000000002</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="5">
         <v>0.70607892999999999</v>
       </c>
       <c r="J5" s="1">
@@ -10220,22 +10159,22 @@
       <c r="C6" s="2">
         <v>0.997</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <v>0.92983342999999996</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
         <v>6.5927929999999996E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>4.2386400000000001E-3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="5">
         <v>2.8456200000000001E-3</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <v>0.35886277</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="5">
         <v>0.63829161000000001</v>
       </c>
       <c r="J6" s="1">
@@ -10291,22 +10230,22 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D7" s="10">
+      <c r="D7" s="5">
         <v>0.91880298000000005</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>7.6557150000000004E-2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="5">
         <v>4.6398699999999999E-3</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="5">
         <v>4.9444900000000002E-3</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="5">
         <v>0.41392420000000002</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="5">
         <v>0.58113130999999996</v>
       </c>
       <c r="J7" s="1">
@@ -10362,22 +10301,22 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D8" s="10">
+      <c r="D8" s="5">
         <v>0.90861002999999996</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <v>8.639049E-2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>4.9994799999999997E-3</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="5">
         <v>7.6127599999999997E-3</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="5">
         <v>0.46011042000000002</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="5">
         <v>0.53227681999999998</v>
       </c>
       <c r="J8" s="1">
@@ -10433,22 +10372,22 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D9" s="10">
+      <c r="D9" s="5">
         <v>0.89895356999999998</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <v>9.5707150000000005E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>5.3392800000000001E-3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="5">
         <v>1.077759E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="5">
         <v>0.49912256999999999</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="5">
         <v>0.49009984000000001</v>
       </c>
       <c r="J9" s="1">
@@ -10504,22 +10443,22 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <v>0.88978623000000001</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <v>0.10455523</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>5.6585300000000002E-3</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="5">
         <v>1.43661E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <v>0.53230155999999995</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>0.45333235</v>
       </c>
       <c r="J10" s="1">
@@ -10575,70 +10514,70 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <v>0.88122540999999999</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="5">
         <v>0.11283134</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
         <v>5.9432499999999997E-3</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="5">
         <v>1.8315669999999999E-2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="5">
         <v>0.56068954999999998</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>0.42099478000000001</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:J17" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="J11:J15" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>0.95362377065869197</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11:K17" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="K11:K15" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>4.563238144271016E-2</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:L17" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="L11:L15" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>7.4384789859789906E-4</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" ref="M11:M17" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="M11:M15" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>6.6228970208010718E-2</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N17" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="N11:N15" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>0.75770645265336056</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:O17" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="O11:O15" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>0.17606457713862875</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11:P17" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="P11:P15" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>0.95768129351297593</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" ref="Q11:Q17" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="Q11:Q15" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>4.146461036463274E-2</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ref="R11:R17" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="R11:R15" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>8.5409612239124757E-4</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" ref="S11:S17" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="S11:S15" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>6.9486681416404086E-2</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" ref="T11:T17" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="T11:T15" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>0.71930830172558635</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11:U17" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="U11:U15" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>0.21120501685800955</v>
       </c>
       <c r="V11" t="s">
@@ -10646,22 +10585,22 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <v>0.87289172999999998</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="5">
         <v>0.1208856</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
         <v>6.2226699999999996E-3</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="5">
         <v>2.2550629999999999E-2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="5">
         <v>0.58506639999999999</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="5">
         <v>0.39238297</v>
       </c>
       <c r="J12" s="1">
@@ -10717,22 +10656,22 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D13" s="10">
+      <c r="D13" s="5">
         <v>0.86470482000000004</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="5">
         <v>0.12879370000000001</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="5">
         <v>6.5014799999999996E-3</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="5">
         <v>2.7012930000000001E-2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="5">
         <v>0.60608578999999996</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="5">
         <v>0.36690128</v>
       </c>
       <c r="J13" s="1">
@@ -10788,22 +10727,22 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <v>0.85695381000000004</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="5">
         <v>0.13629300999999999</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
         <v>6.7531800000000001E-3</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="5">
         <v>3.1670329999999997E-2</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="5">
         <v>0.62427608000000001</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="5">
         <v>0.34405358000000003</v>
       </c>
       <c r="J14" s="1">
@@ -10859,22 +10798,22 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D15" s="10">
+      <c r="D15" s="5">
         <v>0.80901798999999996</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="5">
         <v>0.18270852000000001</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="5">
         <v>8.2734899999999997E-3</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="5">
         <v>6.5142740000000005E-2</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="5">
         <v>0.69731083000000005</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="5">
         <v>0.23754644</v>
       </c>
       <c r="J15" s="1">
@@ -10949,7 +10888,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -10969,7 +10908,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -10989,7 +10928,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -11009,7 +10948,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -11029,66 +10968,6 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:C3"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72D1E6-F2CD-4DC0-B14E-9F01A6FA8E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B55896-2D6F-47DA-8B23-F83C315E50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="1-Butanol EthylAcetate Water" sheetId="10" r:id="rId8"/>
     <sheet name="Beta-Pinene Ethanol Water" sheetId="13" r:id="rId9"/>
     <sheet name="Heptane Ethanol Water" sheetId="14" r:id="rId10"/>
+    <sheet name="1-Butanol DimethylCarbonate H2O" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="94">
   <si>
     <t>CPME</t>
   </si>
@@ -321,6 +322,12 @@
   </si>
   <si>
     <t>4,5 5 0,5</t>
+  </si>
+  <si>
+    <t>DimethylCarbonate</t>
+  </si>
+  <si>
+    <t>H2O</t>
   </si>
 </sst>
 </file>
@@ -3046,6 +3053,1075 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C040884-58BD-44ED-BECA-C4A594A7C7C4}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.53835999000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.46164000999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.0450369999999999E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.97954962999999995</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.85519806289947387</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.14480193710052613</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>9.5619987521092631E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.9043800124789072</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.8275339480885624</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.1724660519114376</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>7.9103954638051435E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.92089604536194858</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4">
+        <v>0.49178263</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.4063170000000001E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.45415420000000001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.9713339999999999E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.3672099999999998E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.97591945000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.77912702937299649</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>7.8798705403730865E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.14207426522327252</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>9.1081936591503695E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>1.8563446425033957E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.89035461698346241</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.73635004528529002</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>9.8377070988508911E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.16527288372620094</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>7.5180529718591474E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>2.0240931407669392E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.90457853887373907</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>74.122</v>
+      </c>
+      <c r="B4">
+        <v>90.08</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.44638702000000002</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.11233752</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.44127547</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.8616270000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8.2625000000000007E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.97312122999999995</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70090749135359987</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16227681139437869</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13681569725202153</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5251334569046905E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4809876247024155E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87993878918392887</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.64678772317346889</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1978136654787776</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.15539861134775368</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>7.0205004761011977E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>3.786762998653332E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.89192736525245475</v>
+      </c>
+      <c r="V4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4">
+        <v>0.40122794000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.17626127999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.42251076999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.7194640000000001E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.163251E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.97117284999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6203133934247379</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25070292408537936</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12898368248988268</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8277266451163036E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8719013707772853E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87300371984106417</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.55871492847545934</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.29828902561976156</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.14299604590477913</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>6.4310160398775865E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>5.28738808619897E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.88281595873923435</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.35562491000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.24779789999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.39657717999999997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.555399E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.444924E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.96999676999999995</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5372757264015684</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34441745815555497</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11830681544287661</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0577487172346562E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>6.0318685781165109E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.86910382704648836</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.4721781492521866</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.39984583970199894</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12797601104581455</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>5.7850090579326996E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>6.5311322947267644E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.87683858647340529</v>
+      </c>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>0.30762328</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.32854308999999998</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.36383363000000002</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.371841E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.666786E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.96961372999999995</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45124483474608823</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44337160112862056</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10538356412529115</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2211727598934521E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>6.9539380408694632E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.86824889199237087</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.38678810471640335</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.50202748739416125</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11118440788943547</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0877749109540023E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>7.5125124248900971E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.87399712664155904</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>0.25617592</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.42084411999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.32297996000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.179967E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.8356850000000001E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.96984347000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36227911954962733</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54753104941362851</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0189831036744286E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3588067940774219E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6697089982130665E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.86971484207709515</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.30276408409704142</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.60446138563897145</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>9.2774530263987118E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>4.3730909389678399E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>8.2679540539066912E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.87358955007125461</v>
+      </c>
+      <c r="V8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>0.19946319000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.52574953999999996</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.27478726999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9.7484200000000007E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.9570819999999999E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.97068074999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27049302094472782</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65592577145538355</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3581207599888634E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>4.442751482870199E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>8.2055803141875411E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87351668202942245</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.22035528695568687</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.70586372594972735</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>7.3780987094585748E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>3.6178680590866021E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>8.8269113175770769E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.87555220623336327</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>0.1365268</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.64194604</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.22152716</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7.3667400000000001E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.0338430000000001E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.97229482</v>
+      </c>
+      <c r="J10" s="1">
+        <f>(P10/$A$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.17711145949696397</v>
+      </c>
+      <c r="K10" s="1">
+        <f>(Q10/$B$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.76614287045323981</v>
+      </c>
+      <c r="L10" s="1">
+        <f>(R10/$C$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>5.6745670049796249E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f>(S10/$A$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>3.3782117875971442E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f>(T10/$B$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>8.5804772725683376E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <f>(U10/$C$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.88041310939834505</v>
+      </c>
+      <c r="P10" s="1">
+        <f>(D10*$A$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.14067373434108688</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>(E10*$B$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.80384974410174981</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(F10*$C$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>5.5476521557163365E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(G10*$A$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>2.7447326099309385E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(H10*$B$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>9.2092311392334952E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(I10*$C$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.88046036250835569</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>6.8573289999999995E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.76574109999999995</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.16568559999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4.3277400000000001E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.0738610000000001E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.97493364999999998</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J15" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>8.510359416539813E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K15" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.87429372790941762</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L15" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>4.0602677925184225E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M15" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>2.0043583618979247E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N15" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>8.836419894582398E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:O15" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.89159221743519668</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P15" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>6.5971205774005837E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q15" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.8952877486627604</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R15" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>3.8741045563233725E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S15" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>1.6240135204691739E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T15" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>9.4577835794627016E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U15" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.88918202900068122</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.88558672000000005</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.11441328000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.0589219999999998E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.97941078000000004</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.97301881091786135</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="14"/>
+        <v>2.6981189082138649E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="16"/>
+        <v>8.9207234921626966E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="17"/>
+        <v>0.91079276507837315</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="19"/>
+        <v>0.9748132204944977</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="20"/>
+        <v>2.5186779505502264E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="22"/>
+        <v>9.5117675899121568E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="23"/>
+        <v>0.90488232410087843</v>
+      </c>
+      <c r="V12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V23"/>
@@ -8691,7 +9767,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="V2" sqref="V2:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9759,8 +10835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2F3995-77EE-4507-98EC-F4DE22C970F6}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:U15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B55896-2D6F-47DA-8B23-F83C315E50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF67064E-CA57-4A01-8843-66E9EDAA813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="1-Butanol EthylAcetate Water" sheetId="10" r:id="rId8"/>
     <sheet name="Beta-Pinene Ethanol Water" sheetId="13" r:id="rId9"/>
     <sheet name="Heptane Ethanol Water" sheetId="14" r:id="rId10"/>
-    <sheet name="1-Butanol DimethylCarbonate H2O" sheetId="15" r:id="rId11"/>
+    <sheet name="LogP Octanol Water" sheetId="16" r:id="rId11"/>
+    <sheet name="1-Butanol DimethylCarbonate H2O" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="97">
   <si>
     <t>CPME</t>
   </si>
@@ -328,6 +329,15 @@
   </si>
   <si>
     <t>H2O</t>
+  </si>
+  <si>
+    <t>LogP</t>
+  </si>
+  <si>
+    <t>Octanol</t>
+  </si>
+  <si>
+    <t>Log P</t>
   </si>
 </sst>
 </file>
@@ -3054,11 +3064,570 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908938E7-53FC-448B-A5BE-CBDD084986DE}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.95873130459559563</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((Q2/$B$6)+(R2/$C$6))</f>
+        <v>4.1268695404404324E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((E2*$B$4)+(F2*$C$4))</f>
+        <v>0.95038133546664716</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((E2*$B$4)+(F2*$C$4))</f>
+        <v>4.9618664533352889E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>130.227</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C040884-58BD-44ED-BECA-C4A594A7C7C4}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3831,51 +4400,51 @@
         <v>0.97493364999999998</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:J15" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="J11:J12" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>8.510359416539813E-2</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11:K15" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="K11:K12" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>0.87429372790941762</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:L15" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <f t="shared" ref="L11:L12" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
         <v>4.0602677925184225E-2</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" ref="M11:M15" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="M11:M12" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>2.0043583618979247E-2</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N15" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="N11:N12" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>8.836419894582398E-2</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:O15" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <f t="shared" ref="O11:O12" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
         <v>0.89159221743519668</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11:P15" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="P11:P12" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>6.5971205774005837E-2</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" ref="Q11:Q15" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="Q11:Q12" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>0.8952877486627604</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ref="R11:R15" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="R11:R12" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>3.8741045563233725E-2</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" ref="S11:S15" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="S11:S12" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>1.6240135204691739E-2</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" ref="T11:T15" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="T11:T12" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>9.4577835794627016E-2</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11:U15" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="U11:U12" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>0.88918202900068122</v>
       </c>
       <c r="V11" t="s">

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF67064E-CA57-4A01-8843-66E9EDAA813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B08E20-3405-4AB4-A573-B357E876F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Heptane Ethanol Water" sheetId="14" r:id="rId10"/>
     <sheet name="LogP Octanol Water" sheetId="16" r:id="rId11"/>
     <sheet name="1-Butanol DimethylCarbonate H2O" sheetId="15" r:id="rId12"/>
+    <sheet name="D-Limonene Ethanol Water" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="98">
   <si>
     <t>CPME</t>
   </si>
@@ -339,6 +340,9 @@
   <si>
     <t>Log P</t>
   </si>
+  <si>
+    <t>D-Limonene</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0#######"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +376,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -460,10 +468,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -485,10 +494,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{6E4674A7-957C-4260-95CE-0B2739139CF4}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{CC49F656-2017-4294-88C1-E55E6748D768}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3067,7 +3077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908938E7-53FC-448B-A5BE-CBDD084986DE}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -4581,6 +4591,1228 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EEE898-1F83-4E33-96D1-378DF6D61B9F}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.99860764000000002</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.39236E-3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3.2049E-6</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.99999680000000002</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.99984449702207678</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>1.5550297792323348E-4</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>2.8731202240068127E-5</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.99997126879775988</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.99981565755395385</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>1.8434244604610014E-4</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>2.4235756981140617E-5</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.99997576424301882</v>
+      </c>
+      <c r="V2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5">
+        <v>0.97023501000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.7286439999999999E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.4785599999999999E-3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5.5844000000000003E-5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.11346602</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.88647812999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.98968569695020703</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>1.0032289883591812E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>2.8201316620110459E-4</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>3.9935464330647741E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.29246970294904567</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.70713094240764784</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.99024815439307923</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>9.4173308395059923E-3</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>3.3451476741482841E-4</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>3.5878198804549407E-4</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.24650957053898997</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.75313164747296457</v>
+      </c>
+      <c r="V3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>136.23400000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46.067999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.95306369000000002</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.3830630000000002E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3.1056899999999999E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.1315999999999999E-4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.21155209999999999</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.78813473999999994</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98334235374827084</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6300216647283306E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5742960444606751E-4</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9039702425884043E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46360067043929803</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53449535931811365</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98426910250074084</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>1.530676769691704E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>4.2412980234231707E-4</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>1.7786128453719568E-3</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>0.40629954018533271</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.59192184696929528</v>
+      </c>
+      <c r="V4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.93923703999999997</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5.7164189999999997E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.5987699999999998E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>9.5480999999999995E-4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.29223131000000002</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.70681388000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97812461579079335</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1457339564239328E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1804464496733243E-4</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1575641196686161E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5689672441478123</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.42587519173251909</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97934800508297815</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0155785866208774E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9620905081313165E-4</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>4.9410608558567411E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5113801177551075</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.48367882138903584</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.92674889999999999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.9214540000000005E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.0365599999999998E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.08661E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.35866753000000001</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.63924585</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97332560759359088</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6201505729580261E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7288667682881115E-4</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0295639883587566E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.63787703037427179</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35182732974214065</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97481937394639473</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>2.4619161629729106E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>5.6146442387611435E-4</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>1.0036487770338668E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58337308365093743</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.40659042857872396</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="5">
+        <v>0.91514969000000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8.0412479999999995E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.4378300000000002E-3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3.73903E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.41394775</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.58231321999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9687931499439193</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0682816400743284E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2403365533728599E-4</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.715967161418094E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.68474424616708263</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29809608221873646</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97054007268523346</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>2.8837568629494655E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>6.2235868527194904E-4</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>1.6940188647817309E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.63418894743405418</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.3488708639181286</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>0.90427568000000003</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9.0914149999999999E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.8101699999999999E-3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5.8928699999999997E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.46040299000000001</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.53370415000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96447706987851467</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4950659992958454E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>5.722701285268305E-4</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5469196999136533E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.71723152490276199</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25729927809810155</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.96646304246475356</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2857138088113177E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>6.7981944713328463E-4</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>2.5383399055259576E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>0.67061753092268839</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.30399907002205201</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="5">
+        <v>0.89417871000000004</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.10067658</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5.1447100000000003E-3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8.5066699999999992E-3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.49978956000000002</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.49170376999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96040803417474518</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8975595170238631E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1637065501621074E-4</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4935306244483377E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.73981816700190806</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22524652675360848</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.96261779385910884</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>3.6649821517761007E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>7.3238462313020465E-4</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>3.5074272367936504E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>0.6968352545974027</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.26809047303466083</v>
+      </c>
+      <c r="V9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="5">
+        <v>0.88438879000000004</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.11013508</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5.4761300000000001E-3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.1513600000000001E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.53336338000000005</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.45512301999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <f>(P10/$A$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.95640958837002377</v>
+      </c>
+      <c r="K10" s="1">
+        <f>(Q10/$B$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>4.2929833733775034E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f>(R10/$C$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>6.6057789620106787E-4</v>
+      </c>
+      <c r="M10" s="1">
+        <f>(S10/$A$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>4.5235515436136353E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f>(T10/$B$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.75530862281227229</v>
+      </c>
+      <c r="O10" s="1">
+        <f>(U10/$C$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.1994558617515913</v>
+      </c>
+      <c r="P10" s="1">
+        <f>(D10*$A$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.95883723793434084</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>(E10*$B$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>4.0377663523706996E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(F10*$C$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>7.8509854195220699E-4</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(G10*$A$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>4.5678775207265924E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(H10*$B$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.71555061198971759</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(I10*$C$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.23877061280301651</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="5">
+        <v>0.87516377999999995</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.11905739999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5.7788199999999996E-3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.486547E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.56218592000000001</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.42294860000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J15" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.9525888559278255</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K15" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>4.6709519284207496E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L15" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>7.0162478796704857E-4</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M15" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>5.6164476112115898E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N15" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.76558933417795094</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:O15" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.17824618970993322</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P15" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.95522332042892066</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q15" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>4.3942607639229449E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R15" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>8.3407193184990695E-4</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S15" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>5.6977763550801544E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T15" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.7286526827446308</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U15" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.21436955370456764</v>
+      </c>
+      <c r="V11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="5">
+        <v>0.86644586000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.12749993000000001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6.05421E-3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.8510470000000001E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.58704332000000004</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.39444621000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="12"/>
+        <v>0.94892942861310114</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="13"/>
+        <v>5.0330966859074379E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="14"/>
+        <v>7.3960452782446441E-4</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="15"/>
+        <v>6.7531136320111651E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="16"/>
+        <v>0.77195076953340602</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="17"/>
+        <v>0.16051809414648247</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9517607549923478</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="19"/>
+        <v>4.735983257438027E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="20"/>
+        <v>8.7941243327188765E-4</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="21"/>
+        <v>6.876586523352568E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="22"/>
+        <v>0.73746169320530663</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="23"/>
+        <v>0.19377244156116777</v>
+      </c>
+      <c r="V12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="5">
+        <v>0.85794358000000004</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.13573276000000001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6.32366E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2.239236E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.60855539000000003</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.36905225000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="12"/>
+        <v>0.945316903225637</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="13"/>
+        <v>5.390588959801338E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="14"/>
+        <v>7.7720717634974451E-4</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="15"/>
+        <v>7.9151271225745057E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="16"/>
+        <v>0.77533784453210319</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="17"/>
+        <v>0.14551088424215175</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="18"/>
+        <v>0.94834106470861979</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="19"/>
+        <v>5.0734613700756506E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="20"/>
+        <v>9.2432159062369402E-4</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="21"/>
+        <v>8.0844867374934445E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="22"/>
+        <v>0.74296190921271688</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="23"/>
+        <v>0.17619322341234869</v>
+      </c>
+      <c r="V13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="5">
+        <v>0.84947585000000003</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.14392336</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6.6007899999999996E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2.646302E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.62723846000000005</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.34629852</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.94167751690921109</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="13"/>
+        <v>5.7506282928681485E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="14"/>
+        <v>8.1620016210747501E-4</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="15"/>
+        <v>9.0884306706693688E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="16"/>
+        <v>0.77645272056454018</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="17"/>
+        <v>0.13266297272876609</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="18"/>
+        <v>0.94489420134884661</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="19"/>
+        <v>5.4134893463668385E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="20"/>
+        <v>9.7090518748495854E-4</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="21"/>
+        <v>9.3062037812221665E-2</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="22"/>
+        <v>0.74589841272015756</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="23"/>
+        <v>0.16103954946762083</v>
+      </c>
+      <c r="V14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="5">
+        <v>0.79993431999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.19192566</v>
+      </c>
+      <c r="F15" s="5">
+        <v>8.1400199999999995E-3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5.6247440000000003E-2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.70323349000000002</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.24051907</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="12"/>
+        <v>0.91944364096413655</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="13"/>
+        <v>7.9512730726551392E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="14"/>
+        <v>1.0436283093121282E-3</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="15"/>
+        <v>0.16712976528658485</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="16"/>
+        <v>0.75315338021610834</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="17"/>
+        <v>7.9716854497306811E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="18"/>
+        <v>0.92380657398035382</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="19"/>
+        <v>7.4950340668431065E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="20"/>
+        <v>1.2430853512151792E-3</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="21"/>
+        <v>0.1726157326900411</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="22"/>
+        <v>0.72977840805149041</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="23"/>
+        <v>9.7605859258468555E-2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B08E20-3405-4AB4-A573-B357E876F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF9B17-2F02-4F05-8523-02179F9FAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="LogP Octanol Water" sheetId="16" r:id="rId11"/>
     <sheet name="1-Butanol DimethylCarbonate H2O" sheetId="15" r:id="rId12"/>
     <sheet name="D-Limonene Ethanol Water" sheetId="17" r:id="rId13"/>
+    <sheet name="EtOAc Ethanol Water (2)" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="99">
   <si>
     <t>CPME</t>
   </si>
@@ -343,6 +344,9 @@
   <si>
     <t>D-Limonene</t>
   </si>
+  <si>
+    <t>EtOAc</t>
+  </si>
 </sst>
 </file>
 
@@ -380,6 +384,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4705,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EEE898-1F83-4E33-96D1-378DF6D61B9F}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:R15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5813,6 +5818,820 @@
       <c r="V15" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A34FEF3-D351-4729-9592-3E69E073D42F}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.78717661999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.21282338000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.890729E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.98109270999999998</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.95237076047257052</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>4.7629239527429451E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>9.4353399775678179E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.90564660022432186</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.94761714960903642</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>5.2382850390963513E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>8.6137276187516598E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.91386272381248335</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5">
+        <v>0.69091230999999997</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.9225680000000003E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.249862</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.4137039999999998E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2.3274989999999999E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.95258796999999995</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.89434761552596287</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>4.5824440372140424E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>5.9827944101896742E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.11265455172047042</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>6.4931872606709101E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.82241357567282047</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.89384669182186094</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>4.0061233684389436E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>6.6092074493749639E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.10445645821154975</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>5.2664133868514915E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.84287940791993532</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>88.11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46.067999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.60191749000000005</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.11138708</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.28669541999999998</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.0553810000000001E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4.8392440000000002E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.92105375</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83422486308084809</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2275132363422163E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3500004555729706E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13292694163175472</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12584293844863403</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.74123011991961107</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.83742284307268244</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>8.1024585224181614E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>8.1552571703135929E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>0.12513100148984019</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>0.10362182193857704</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.7712471765715827</v>
+      </c>
+      <c r="V4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.52143351999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.15639107999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.3221754</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.8759540000000002E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7.6009779999999999E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.88523068000000005</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77305725789225133</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13858888027540725</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8353861832341424E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15632561927699404</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.18324186799723449</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.66043251272577141</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.77933594649269899</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12221145030597415</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>9.8452603201326816E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>0.14936495446687945</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.15314884614365959</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.69748619938946099</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.44754389</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.19476635</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.35768976000000002</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.9130670000000001E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.10652979</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.84433954</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71024506982365565</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.184752452472115</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10500247770422927</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18264807993392052</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2367212179128855</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58063070215319401</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.71893428473752308</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.16358430939542981</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11748140586704707</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.17707085466995429</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.20074263690841951</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.62218650842162615</v>
+      </c>
+      <c r="V6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="5">
+        <v>0.34804383999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.23034439000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.42161176</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5.8877369999999998E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.13808733000000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.80303530000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61740976341741871</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24424229499110528</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13834794159147604</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20305339357293456</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2846553649978657</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5122912414291998</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.6274661430368208</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21712415529583504</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.15540970166734422</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.19940537792371366</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.2445211637351698</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.55607345834111666</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF9B17-2F02-4F05-8523-02179F9FAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5812ACE1-ADBD-40A8-AF6D-E1B1853EE3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10104" yWindow="420" windowWidth="12828" windowHeight="12624" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="LogP Octanol Water" sheetId="16" r:id="rId11"/>
     <sheet name="1-Butanol DimethylCarbonate H2O" sheetId="15" r:id="rId12"/>
     <sheet name="D-Limonene Ethanol Water" sheetId="17" r:id="rId13"/>
-    <sheet name="EtOAc Ethanol Water (2)" sheetId="18" r:id="rId14"/>
+    <sheet name="EtOAc Ethanol Water" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4710,7 +4710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EEE898-1F83-4E33-96D1-378DF6D61B9F}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -5932,7 +5932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A34FEF3-D351-4729-9592-3E69E073D42F}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
@@ -6115,51 +6115,51 @@
         <v>0.95258796999999995</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="J3:J7" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>0.89434761552596287</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="K3:K7" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>4.5824440372140424E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="L3:L7" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>5.9827944101896742E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="M3:M7" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.11265455172047042</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="N3:N7" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>6.4931872606709101E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="O3:O7" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.82241357567282047</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="P3:P7" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>0.89384669182186094</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="Q3:Q7" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>4.0061233684389436E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="R3:R7" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>6.6092074493749639E-2</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="S3:S7" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>0.10445645821154975</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="T3:T7" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>5.2664133868514915E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="U3:U7" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>0.84287940791993532</v>
       </c>
       <c r="V3" t="s">

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neve0049\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5812ACE1-ADBD-40A8-AF6D-E1B1853EE3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2133F3-40FF-4B23-8E47-1336C02B7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10104" yWindow="420" windowWidth="12828" windowHeight="12624" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10368" yWindow="708" windowWidth="12828" windowHeight="12624" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
@@ -4710,7 +4710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EEE898-1F83-4E33-96D1-378DF6D61B9F}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -5932,8 +5932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A34FEF3-D351-4729-9592-3E69E073D42F}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6021,26 +6021,26 @@
         <v>2</v>
       </c>
       <c r="D2" s="5">
-        <v>0.78717661999999999</v>
+        <v>0.78719393000000004</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>0.21282338000000001</v>
+        <v>0.21280607000000001</v>
       </c>
       <c r="G2" s="5">
-        <v>1.890729E-2</v>
+        <v>1.890998E-2</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>0.98109270999999998</v>
+        <v>0.98109002000000001</v>
       </c>
       <c r="J2" s="1">
         <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
-        <v>0.95237076047257052</v>
+        <v>0.95237544728780543</v>
       </c>
       <c r="K2" s="1">
         <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
@@ -6048,11 +6048,11 @@
       </c>
       <c r="L2" s="1">
         <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
-        <v>4.7629239527429451E-2</v>
+        <v>4.7624552712194651E-2</v>
       </c>
       <c r="M2" s="1">
         <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
-        <v>9.4353399775678179E-2</v>
+        <v>9.4365791293587284E-2</v>
       </c>
       <c r="N2" s="1">
         <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
@@ -6060,11 +6060,11 @@
       </c>
       <c r="O2" s="1">
         <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
-        <v>0.90564660022432186</v>
+        <v>0.90563420870641287</v>
       </c>
       <c r="P2" s="1">
         <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
-        <v>0.94761714960903642</v>
+        <v>0.94762227846359892</v>
       </c>
       <c r="Q2" s="1">
         <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
@@ -6072,11 +6072,11 @@
       </c>
       <c r="R2" s="1">
         <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
-        <v>5.2382850390963513E-2</v>
+        <v>5.2377721536401155E-2</v>
       </c>
       <c r="S2" s="1">
         <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
-        <v>8.6137276187516598E-2</v>
+        <v>8.6148691316134771E-2</v>
       </c>
       <c r="T2" s="1">
         <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="U2" s="1">
         <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
-        <v>0.91386272381248335</v>
+        <v>0.91385130868386533</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
@@ -6097,70 +6097,70 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5">
-        <v>0.69091230999999997</v>
+        <v>0.70216729</v>
       </c>
       <c r="E3" s="5">
-        <v>5.9225680000000003E-2</v>
+        <v>5.2437600000000001E-2</v>
       </c>
       <c r="F3" s="5">
-        <v>0.249862</v>
+        <v>0.2453951</v>
       </c>
       <c r="G3" s="5">
-        <v>2.4137039999999998E-2</v>
+        <v>2.3411769999999998E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>2.3274989999999999E-2</v>
+        <v>2.0325639999999999E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>0.95258796999999995</v>
+        <v>0.95626259000000002</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J7" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>0.89434761552596287</v>
+        <v>0.90148180605159367</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K7" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>4.5824440372140424E-2</v>
+        <v>4.0240453777367798E-2</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L7" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>5.9827944101896742E-2</v>
+        <v>5.8277740171038706E-2</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M7" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>0.11265455172047042</v>
+        <v>0.1101996560557114</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N7" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>6.4931872606709101E-2</v>
+        <v>5.7186551817698987E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O7" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>0.82241357567282047</v>
+        <v>0.83261379212658959</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P7" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>0.89384669182186094</v>
+        <v>0.90049424335986861</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q7" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>4.0061233684389436E-2</v>
+        <v>3.5160683579280989E-2</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R7" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>6.6092074493749639E-2</v>
+        <v>6.4345073060850536E-2</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" ref="S3:S7" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>0.10445645821154975</v>
+        <v>0.10198686105973558</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" ref="T3:T7" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>5.2664133868514915E-2</v>
+        <v>4.6294389640071293E-2</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U7" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>0.84287940791993532</v>
+        <v>0.8517187493001932</v>
       </c>
       <c r="V3" t="s">
         <v>65</v>
@@ -6177,70 +6177,70 @@
         <v>18.015000000000001</v>
       </c>
       <c r="D4" s="5">
-        <v>0.60191749000000005</v>
+        <v>0.62301631000000002</v>
       </c>
       <c r="E4" s="5">
-        <v>0.11138708</v>
+        <v>9.9347260000000007E-2</v>
       </c>
       <c r="F4" s="5">
-        <v>0.28669541999999998</v>
+        <v>0.27763642999999999</v>
       </c>
       <c r="G4" s="5">
-        <v>3.0553810000000001E-2</v>
+        <v>2.888137E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>4.8392440000000002E-2</v>
+        <v>4.2047840000000003E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>0.92105375</v>
+        <v>0.92907077999999998</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.83422486308084809</v>
+        <v>0.84907873862386485</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>9.2275132363422163E-2</v>
+        <v>8.092973807571445E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>7.3500004555729706E-2</v>
+        <v>6.9991523300420688E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="3"/>
-        <v>0.13292694163175472</v>
+        <v>0.12786589658731193</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="4"/>
-        <v>0.12584293844863403</v>
+        <v>0.11127159672338596</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="5"/>
-        <v>0.74123011991961107</v>
+        <v>0.76086250668930211</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>0.83742284307268244</v>
+        <v>0.85143468831900138</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="7"/>
-        <v>8.1024585224181614E-2</v>
+        <v>7.0987515127598849E-2</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>8.1552571703135929E-2</v>
+        <v>7.7577796553399664E-2</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="9"/>
-        <v>0.12513100148984019</v>
+        <v>0.11992726380053363</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="10"/>
-        <v>0.10362182193857704</v>
+        <v>9.1288901830874292E-2</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="11"/>
-        <v>0.7712471765715827</v>
+        <v>0.78878383436859212</v>
       </c>
       <c r="V4" t="s">
         <v>61</v>
@@ -6253,70 +6253,70 @@
       <c r="B5" s="8"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5">
-        <v>0.52143351999999998</v>
+        <v>0.55059846000000001</v>
       </c>
       <c r="E5" s="5">
-        <v>0.15639107999999999</v>
+        <v>0.14064636</v>
       </c>
       <c r="F5" s="5">
-        <v>0.3221754</v>
+        <v>0.30875518000000002</v>
       </c>
       <c r="G5" s="5">
-        <v>3.8759540000000002E-2</v>
+        <v>3.5573540000000001E-2</v>
       </c>
       <c r="H5" s="5">
-        <v>7.6009779999999999E-2</v>
+        <v>6.5544270000000002E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>0.88523068000000005</v>
+        <v>0.89888219000000003</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0.77305725789225133</v>
+        <v>0.79591588630038068</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>0.13858888027540725</v>
+        <v>0.12152464721329005</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>8.8353861832341424E-2</v>
+        <v>8.2559466486329156E-2</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>0.15632561927699404</v>
+        <v>0.1475928844235633</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>0.18324186799723449</v>
+        <v>0.16254617622046771</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>0.66043251272577141</v>
+        <v>0.68986093935596882</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>0.77933594649269899</v>
+        <v>0.80114655244025279</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="7"/>
-        <v>0.12221145030597415</v>
+        <v>0.10699897801027931</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>9.8452603201326816E-2</v>
+        <v>9.1854469549467896E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="9"/>
-        <v>0.14936495446687945</v>
+        <v>0.14025823825473488</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="10"/>
-        <v>0.15314884614365959</v>
+        <v>0.13511705860663661</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="11"/>
-        <v>0.69748619938946099</v>
+        <v>0.72462470313862859</v>
       </c>
       <c r="V5" t="s">
         <v>66</v>
@@ -6333,70 +6333,70 @@
         <v>0.997</v>
       </c>
       <c r="D6" s="5">
-        <v>0.44754389</v>
+        <v>0.47564347000000001</v>
       </c>
       <c r="E6" s="5">
-        <v>0.19476635</v>
+        <v>0.17805133000000001</v>
       </c>
       <c r="F6" s="5">
-        <v>0.35768976000000002</v>
+        <v>0.34630519999999998</v>
       </c>
       <c r="G6" s="5">
-        <v>4.9130670000000001E-2</v>
+        <v>4.2805070000000001E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>0.10652979</v>
+        <v>9.0530620000000006E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>0.84433954</v>
+        <v>0.86666430999999999</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0.71024506982365565</v>
+        <v>0.73614359385146289</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>0.184752452472115</v>
+        <v>0.16471377156000835</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>0.10500247770422927</v>
+        <v>9.9142634588528705E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>0.18264807993392052</v>
+        <v>0.16640664613083184</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="4"/>
-        <v>0.2367212179128855</v>
+        <v>0.21036556056344655</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>0.58063070215319401</v>
+        <v>0.62322779330572164</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>0.71893428473752308</v>
+        <v>0.74372439299770443</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="7"/>
-        <v>0.16358430939542981</v>
+        <v>0.14556262074401619</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>0.11748140586704707</v>
+        <v>0.11071298625827942</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="9"/>
-        <v>0.17707085466995429</v>
+        <v>0.16011642583015859</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="10"/>
-        <v>0.20074263690841951</v>
+        <v>0.17705586893854347</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="11"/>
-        <v>0.62218650842162615</v>
+        <v>0.66282770523129797</v>
       </c>
       <c r="V6" t="s">
         <v>69</v>
@@ -6404,70 +6404,70 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="5">
-        <v>0.34804383999999999</v>
+        <v>0.36121250999999999</v>
       </c>
       <c r="E7" s="5">
-        <v>0.23034439000000001</v>
+        <v>0.21489174999999999</v>
       </c>
       <c r="F7" s="5">
-        <v>0.42161176</v>
+        <v>0.42389574000000002</v>
       </c>
       <c r="G7" s="5">
-        <v>5.8877369999999998E-2</v>
+        <v>4.8626950000000002E-2</v>
       </c>
       <c r="H7" s="5">
-        <v>0.13808733000000001</v>
+        <v>0.11571993999999999</v>
       </c>
       <c r="I7" s="5">
-        <v>0.80303530000000001</v>
+        <v>0.83565310999999998</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0.61740976341741871</v>
+        <v>0.63585825374035987</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>0.24424229499110528</v>
+        <v>0.22611062160270923</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>0.13834794159147604</v>
+        <v>0.13803112465693085</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>0.20305339357293456</v>
+        <v>0.17853034552909602</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="4"/>
-        <v>0.2846553649978657</v>
+        <v>0.25394923339850256</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>0.5122912414291998</v>
+        <v>0.56752042107240153</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>0.6274661430368208</v>
+        <v>0.64474859591659273</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="7"/>
-        <v>0.21712415529583504</v>
+        <v>0.2005494713953471</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>0.15540970166734422</v>
+        <v>0.1547019326880601</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="9"/>
-        <v>0.19940537792371366</v>
+        <v>0.1736747355977234</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="10"/>
-        <v>0.2445211637351698</v>
+        <v>0.2160936338415185</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="11"/>
-        <v>0.55607345834111666</v>
+        <v>0.61023163056075802</v>
       </c>
       <c r="V7" t="s">
         <v>68</v>
